--- a/dataTools/excelData/role/npc.xlsx
+++ b/dataTools/excelData/role/npc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -36,63 +36,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>图片ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREEVENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话(未满足事件条件，或者事件已完成)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIALOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfoBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANREUSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DontBeGreedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Mole</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREEVENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话(未满足事件条件，或者事件已完成)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIALOG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InfoBoard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Door</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CANREUSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAmBear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否立刻标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARKNOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要出示物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEEDITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REWARDEVENT</t>
+  </si>
+  <si>
+    <t>奖励事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,26 +466,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="6" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,22 +493,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,27 +528,36 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>20001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>20001</v>
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>20007</v>
       </c>
       <c r="D3">
         <v>10001</v>
@@ -515,22 +568,31 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>20002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>20002</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>10009</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -538,16 +600,22 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>20003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>20003</v>
@@ -561,13 +629,22 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>20004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>20003</v>
@@ -581,13 +658,22 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>20005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>20002</v>
@@ -601,8 +687,110 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>20006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>20006</v>
+      </c>
+      <c r="D8">
+        <v>10005</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>20007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>20007</v>
+      </c>
+      <c r="D9">
+        <v>10007</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>20008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>20001</v>
+      </c>
+      <c r="D10">
+        <v>10008</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <v>10003</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10011</v>
       </c>
     </row>
   </sheetData>

--- a/dataTools/excelData/role/npc.xlsx
+++ b/dataTools/excelData/role/npc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>奖励事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -793,6 +797,35 @@
         <v>10011</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>20009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>20009</v>
+      </c>
+      <c r="D11">
+        <v>10012</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataTools/excelData/role/npc.xlsx
+++ b/dataTools/excelData/role/npc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -132,6 +132,14 @@
   </si>
   <si>
     <t>Frog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EchoIsMyFriend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -826,6 +834,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>20010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>20010</v>
+      </c>
+      <c r="D12">
+        <v>10014</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataTools/excelData/role/npc.xlsx
+++ b/dataTools/excelData/role/npc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -139,7 +139,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EchoIsMyFriend</t>
+    <t>Welcome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChloeIsMyFriend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -854,15 +858,47 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>20011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>20007</v>
+      </c>
+      <c r="D13">
+        <v>10015</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
         <v>30</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
         <v>0</v>
       </c>
     </row>

--- a/dataTools/excelData/role/npc.xlsx
+++ b/dataTools/excelData/role/npc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>ChloeIsMyFriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackSmith</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -902,6 +906,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>20006</v>
+      </c>
+      <c r="D14">
+        <v>10018</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
